--- a/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
+++ b/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
@@ -1,129 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DED83F-FCFD-4D12-9C5F-B30F537A8A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24990" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Dfs</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Mov</t>
+  </si>
+  <si>
+    <t>Exp</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ActiveType</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActiveType</t>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击杀经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>chara</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>zhuizhong1</t>
+  </si>
+  <si>
+    <t>genzong2</t>
+  </si>
+  <si>
+    <t>yuanjuli</t>
+  </si>
+  <si>
+    <t>精英怪物</t>
+  </si>
+  <si>
+    <t>weirao</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>头目</t>
+  </si>
+  <si>
+    <t>Monster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,33 +159,396 @@
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,34 +556,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,24 +1174,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.26666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.4571428571429" customWidth="1"/>
+    <col min="4" max="4" width="20.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -508,123 +1202,786 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B4">
         <v>10001</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10005</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10006</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10007</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10008</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>120</v>
+      </c>
+      <c r="F11" s="6">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10009</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10010</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10011</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7">
+        <v>10012</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>70</v>
+      </c>
+      <c r="F15" s="7">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7">
+        <v>10013</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10014</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>135</v>
+      </c>
+      <c r="F17" s="7">
+        <v>50</v>
+      </c>
+      <c r="G17" s="7">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10015</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>80</v>
+      </c>
+      <c r="F18" s="8">
+        <v>50</v>
+      </c>
+      <c r="G18" s="8">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10016</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>85</v>
+      </c>
+      <c r="F19" s="8">
+        <v>50</v>
+      </c>
+      <c r="G19" s="8">
+        <v>30</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>10017</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>75</v>
+      </c>
+      <c r="F20" s="8">
+        <v>50</v>
+      </c>
+      <c r="G20" s="8">
+        <v>25</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10018</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>10019</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>140</v>
+      </c>
+      <c r="F22" s="8">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10">
+        <v>10020</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>80</v>
+      </c>
+      <c r="F23" s="9">
+        <v>50</v>
+      </c>
+      <c r="G23" s="9">
+        <v>28</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="10">
+        <v>10021</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>85</v>
+      </c>
+      <c r="F24" s="9">
+        <v>51</v>
+      </c>
+      <c r="G24" s="9">
+        <v>33</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10">
+        <v>10022</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>75</v>
+      </c>
+      <c r="F25" s="9">
+        <v>52</v>
+      </c>
+      <c r="G25" s="9">
+        <v>28</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>10023</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>53</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10">
+        <v>10024</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>140</v>
+      </c>
+      <c r="F27" s="9">
+        <v>54</v>
+      </c>
+      <c r="G27" s="9">
+        <v>25</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>10025</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>10026</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
+++ b/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11948\Documents\GitHub\Booom202408\DataConfig\Arkham\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B22DB-482C-4BBF-9609-D6FFC1DFAC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24990" windowHeight="12075"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -139,18 +143,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,156 +173,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,222 +193,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -556,251 +230,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -833,61 +265,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1174,24 +562,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A4" sqref="A4:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="9.26666666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.4571428571429" customWidth="1"/>
-    <col min="4" max="4" width="20.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1281,7 +669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1946,42 +1334,38 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
+++ b/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11948\Documents\GitHub\Booom202408\DataConfig\Arkham\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B22DB-482C-4BBF-9609-D6FFC1DFAC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35C733-617D-4AFD-84E5-6E919EAD6769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -138,13 +138,25 @@
   </si>
   <si>
     <t>Monster</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +192,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +282,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A29"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -582,7 +605,7 @@
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +633,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -639,8 +665,11 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -668,8 +697,11 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -694,8 +726,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -723,8 +758,11 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -752,8 +790,11 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -781,8 +822,11 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -808,8 +852,11 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -835,8 +882,11 @@
         <v>0.9</v>
       </c>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -862,8 +912,11 @@
         <v>1</v>
       </c>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -889,8 +942,11 @@
         <v>0.8</v>
       </c>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -908,8 +964,11 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -935,8 +994,11 @@
         <v>0.9</v>
       </c>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -962,8 +1024,11 @@
         <v>0.9</v>
       </c>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -989,8 +1054,11 @@
         <v>1</v>
       </c>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1008,8 +1076,11 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1035,8 +1106,11 @@
         <v>0.8</v>
       </c>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1062,8 +1136,11 @@
         <v>0.9</v>
       </c>
       <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1089,8 +1166,11 @@
         <v>0.9</v>
       </c>
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1116,8 +1196,11 @@
         <v>1</v>
       </c>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1135,8 +1218,11 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1162,8 +1248,11 @@
         <v>0.8</v>
       </c>
       <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1189,8 +1278,11 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -1216,8 +1308,11 @@
         <v>0.9</v>
       </c>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1243,8 +1338,11 @@
         <v>1</v>
       </c>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1262,8 +1360,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
@@ -1289,8 +1390,11 @@
         <v>0.8</v>
       </c>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1318,8 +1422,11 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1331,6 +1438,9 @@
       </c>
       <c r="D29">
         <v>2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
+++ b/DataConfig/Arkham/Datas/ActiveDataSet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11948\Documents\GitHub\Booom202408\DataConfig\Arkham\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35C733-617D-4AFD-84E5-6E919EAD6769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21720" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +58,9 @@
     <t>Exp</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -104,6 +103,9 @@
     <t>击杀经验值</t>
   </si>
   <si>
+    <t>关卡状态</t>
+  </si>
+  <si>
     <t>英雄</t>
   </si>
   <si>
@@ -113,19 +115,19 @@
     <t>怪物</t>
   </si>
   <si>
-    <t>zhuizhong1</t>
-  </si>
-  <si>
-    <t>genzong2</t>
-  </si>
-  <si>
-    <t>yuanjuli</t>
+    <t>DaYan</t>
+  </si>
+  <si>
+    <t>LiaZui</t>
+  </si>
+  <si>
+    <t>LuDan</t>
   </si>
   <si>
     <t>精英怪物</t>
   </si>
   <si>
-    <t>weirao</t>
+    <t>KouMuo</t>
   </si>
   <si>
     <t>建筑</t>
@@ -138,25 +140,19 @@
   </si>
   <si>
     <t>Monster</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,12 +182,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,12 +189,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,36 +346,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,9 +569,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -284,21 +845,65 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -585,27 +1190,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.26666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.45" customWidth="1"/>
+    <col min="4" max="4" width="20.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,82 +1239,82 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -732,13 +1337,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <v>10002</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -764,13 +1369,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5">
         <v>10003</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -796,13 +1401,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5">
         <v>10004</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -828,13 +1433,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6">
         <v>10005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -858,13 +1463,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6">
         <v>10006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -888,13 +1493,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6">
         <v>10007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -918,13 +1523,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6">
         <v>10008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -948,7 +1553,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
         <v>10009</v>
@@ -970,13 +1575,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>10010</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1000,13 +1605,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7">
         <v>10011</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1030,13 +1635,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7">
         <v>10012</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1060,7 +1665,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7">
         <v>10013</v>
@@ -1082,13 +1687,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7">
         <v>10014</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -1112,13 +1717,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8">
         <v>10015</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -1142,13 +1747,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="8">
         <v>10016</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -1172,13 +1777,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8">
         <v>10017</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -1202,7 +1807,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="8">
         <v>10018</v>
@@ -1224,13 +1829,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="8">
         <v>10019</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -1254,13 +1859,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="10">
         <v>10020</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -1284,13 +1889,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="10">
         <v>10021</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -1314,13 +1919,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="10">
         <v>10022</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
@@ -1344,7 +1949,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="10">
         <v>10023</v>
@@ -1366,13 +1971,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="10">
         <v>10024</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -1396,13 +2001,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>10025</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1428,13 +2033,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>10026</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1444,38 +2049,42 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>